--- a/report/バッチ_テスト結果.xlsx
+++ b/report/バッチ_テスト結果.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20409"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{F4C8A711-A65E-445E-86CA-9D3ED55A5F3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{E603DDF0-4140-40AD-AAFC-21045231DDB7}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{F4C8A711-A65E-445E-86CA-9D3ED55A5F3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{E6639264-0A51-4D2E-B114-E4DE804DC1AD}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17415" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="前提" sheetId="1" r:id="rId1"/>
@@ -374,42 +374,39 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1．コマンドラインに「YYYYMM」と任意の年月を入力し、バッチ処理を実行する</t>
+    <t>1．コマンドラインに「YYYYMM」と任意の年月を入力し、バッチ処理を実行する(対象年月の請求ステータスが未確定の場合)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2．コマンドラインに「202404」と年月を入力し、バッチ処理を実行する</t>
+    <t>2．コマンドラインに「202404」と年月を入力し、バッチ処理を実行し、それぞれのレコードをDBで確認する(対象年月の請求ステータスが未確定の場合)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3．コマンドラインに「202405」と年月を入力し、バッチ処理を実行する</t>
+    <t>3．コマンドラインに「202405」と年月を入力し、バッチ処理を実行し、それぞれのレコードをDBで確認する(対象年月の請求ステータスが未確定の場合)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>4．コマンドラインに「202406」と年月を入力し、バッチ処理を実行する</t>
+    <t>4．コマンドラインに「202406」と年月を入力し、バッチ処理を実行し、それぞれのレコードをDBで確認する(対象年月の請求ステータスが未確定の場合)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>5．コマンドラインに「202403」と年月を入力し、バッチ処理を実行する</t>
+    <t>5．コマンドラインに「202403」と年月を入力し、バッチ処理を実行し、出力される内容を確認する(対象年月の請求ステータスが確定済みの場合)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>6．コマンドラインに「202401」と年月を入力し、バッチ処理を実行する</t>
+    <t>6．コマンドラインに「202401」と年月を入力し、バッチ処理を実行し、出力される内容を確認する(対象年月の加入者情報または料金情報が存在していない場合)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>7．コマンドラインに年月を未入力のまま、バッチ処理を実行する</t>
+    <t>7．コマンドラインに年月を未入力のまま、バッチ処理を実行し、出力される内容を確認する</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>8．コマンドラインに指定されていない書式で入力し、バッチ処理を実行する</t>
-    <rPh sb="10" eb="12">
-      <t>シテイ</t>
-    </rPh>
+    <t>8．コマンドラインに指定されていない書式で入力し、バッチ処理を実行し、出力される内容を確認する</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>9．コマンドラインに引数を２つ以上で入力し、バッチ処理を実行する</t>
+    <t>9．コマンドラインに引数を２つ以上で入力し、バッチ処理を実行し、出力される内容を確認する</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -488,18 +485,12 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -507,10 +498,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -966,7 +963,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>419099</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -982,7 +979,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="771524" y="1543050"/>
-          <a:ext cx="9934575" cy="2581275"/>
+          <a:ext cx="9934575" cy="2647950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2505,13 +2502,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2526,8 +2523,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="695325" y="6972300"/>
-          <a:ext cx="10020300" cy="781049"/>
+          <a:off x="695325" y="6867526"/>
+          <a:ext cx="10020300" cy="885824"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2576,10 +2573,10 @@
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2595,7 +2592,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1590674" y="7934324"/>
-          <a:ext cx="8010526" cy="1038225"/>
+          <a:ext cx="6334126" cy="2314576"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -2627,7 +2624,23 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
             <a:t>2-3</a:t>
@@ -2646,8 +2659,19 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>「請求データ」テーブルに対して有効な加入者情報を参照し、「請求年月」列に対象年月、「加入者</a:t>
-          </a:r>
+            <a:t>「請求データ」テーブルに対して有効な加入者情報を参照し、それぞれレコードが追加されていること。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
@@ -2658,6 +2682,68 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
+            <a:t>2-3-1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>．</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「請求年月」列に対象年月が追加されていること。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2-3-2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>．「加入者</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>ID</a:t>
           </a:r>
           <a:r>
@@ -2694,8 +2780,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>、「メールアドレス」列に加入者情報のメールアドレス、「氏名」列に加入者情報の氏名、「住所」列に加入者情報の住所、「加入日」列に加入者情報の加入日、「解決日」列に加入者情報の解約日、「決済方法」列に加入者情報の決済情報、「請求金額」列に料金情報の有効な料金情報を参照した月額金額の合計、「消費税率」列に</a:t>
-          </a:r>
+            <a:t>が追加されていること。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
@@ -2706,6 +2794,224 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
+            <a:t>2-3-3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>．</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「メールアドレス」列に加入者情報のメールアドレスが追加されていること。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2-3-4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>．「氏名」列に加入者情報の氏名が追加されていること。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2-3-5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>．「住所」列に加入者情報の住所が追加されていること。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2-3-6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>．「加入日」列に加入者情報の加入日が追加されていること。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2-3-7.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「解決日」列に加入者情報の解約日が追加されていること。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2-3-8</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>．「決済方法」列に加入者情報の決済情報が追加されていること。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2-3-9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>．「請求金額」列に料金情報の有効な料金情報を参照した月額金額の合計が追加されていること。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2-3-10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>．「消費税率」列に</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>0.1</a:t>
           </a:r>
           <a:r>
@@ -2718,8 +3024,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>、「請求総額」列に小数点以下を切り捨てた「請求金額×</a:t>
-          </a:r>
+            <a:t>が追加されていること。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
@@ -2730,6 +3038,30 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
+            <a:t>2-3-11</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>．「請求総額」列に小数点以下を切り捨てた「請求金額×</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>(1+</a:t>
           </a:r>
           <a:r>
@@ -2766,7 +3098,496 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>」、とそれぞれレコードが追加されていること。</a:t>
+            <a:t>」が追加されていること。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="吹き出し: 四角形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BF6EC8D-2E33-4740-A0A8-B96E9CCD477D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1943099" y="12982574"/>
+          <a:ext cx="6667501" cy="1590676"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -54292"/>
+            <a:gd name="adj2" fmla="val -50664"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2-4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>．</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「請求明細データ」テーブルに対して有効な料金情報を参照し、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>それぞれのレコードが追加されていること。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2-4-1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>．</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「請求年月」列に対象年月が追加されていること。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2-4-2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>．「加入者</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」列に加入者情報の加入者</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>が追加されていること。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2-4-3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>．「料金</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」列に料金情報の料金</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>が追加されていること。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2-4-4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>．「料金名」列に料金情報の料金名が追加されていること。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2-4-5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>．「月額料金」列に料金情報の月額料金が追加されていること。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2-4-6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>．「適用開始日」列に料金情報の適用開始日が追加されていること。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2-4-7</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>．「適用終了日」列に料金情報の適用終了日が追加されていること。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -2778,21 +3599,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>582159</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>19388</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="図 16">
+        <xdr:cNvPr id="20" name="図 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44869DE5-DB7B-418E-9FD3-E1519365F774}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC824D1E-DDC8-4F13-BE90-7FED85375E9C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2814,7 +3635,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="9086850"/>
+          <a:off x="685800" y="10458450"/>
           <a:ext cx="8125959" cy="2419688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2826,16 +3647,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2850,7 +3671,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="695325" y="9286875"/>
+          <a:off x="657225" y="10706100"/>
           <a:ext cx="8077200" cy="2095500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2886,188 +3707,6 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="吹き出し: 四角形 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BF6EC8D-2E33-4740-A0A8-B96E9CCD477D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2114549" y="11534775"/>
-          <a:ext cx="5743575" cy="857250"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -54292"/>
-            <a:gd name="adj2" fmla="val -50664"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>2-4</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>．</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>「請求明細データ」テーブルに対して有効な料金情報を参照し、「請求年月」列に対象年月、「加入者</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ID</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>」列に加入者情報の加入者</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ID</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>、「料金</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ID</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>」列に料金情報の料金</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ID</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>、「料金名」列に料金情報の料金名、「月額料金」列に料金情報の月額料金、「適用開始日」列に料金情報の適用開始日、「適用終了日」列に料金情報の適用終了日、とそれぞれレコードが追加されていること。</a:t>
-          </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -3702,13 +4341,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>342901</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3723,8 +4362,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1933575" y="8505825"/>
-          <a:ext cx="8010526" cy="1038225"/>
+          <a:off x="1933575" y="8505826"/>
+          <a:ext cx="6429375" cy="2295524"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -3775,8 +4414,44 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>「請求データ」テーブルに対して有効な加入者情報を参照し、「請求年月」列に対象年月、「加入者</a:t>
-          </a:r>
+            <a:t>「請求データ」テーブルに対して有効な加入者情報を参照し、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>それぞれのレコード</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>が追加されていること。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
@@ -3787,6 +4462,78 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
+            <a:t>3-3-1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>．</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「請求年月」列に対象年月が追加されていること。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3-3-2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>．「加入者</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>ID</a:t>
           </a:r>
           <a:r>
@@ -3823,8 +4570,20 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>、「メールアドレス」列に加入者情報のメールアドレス、「氏名」列に加入者情報の氏名、「住所」列に加入者情報の住所、「加入日」列に加入者情報の加入日、「解決日」列に加入者情報の解約日、「決済方法」列に加入者情報の決済情報、「請求金額」列に料金情報の有効な料金情報を参照した月額金額の合計、「消費税率」列に</a:t>
-          </a:r>
+            <a:t>が追加されていること。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
@@ -3835,6 +4594,294 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
+            <a:t>3-3-3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>．「メールアドレス」列に加入者情報のメールアドレスが追加されていること。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3-3-4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>．「氏名」列に加入者情報の氏名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>が追加されていること。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3-3-5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>．「住所」列に加入者情報の住所が追加されていること。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3-3-6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>．「加入日」列に加入者情報の加入日が追加されていること。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3-3-7</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>．「解決日」列に加入者情報の解約日が追加されていること。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3-3-8</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>．「決済方法」列に加入者情報の決済情報が追加されていること。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3-3-9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>．「請求金額」列に料金情報の有効な料金情報を参照した月額金額の合計が追加されていること。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3-3-10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>．「消費税率」列に</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>0.1</a:t>
           </a:r>
           <a:r>
@@ -3847,8 +4894,20 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>、「請求総額」列に小数点以下を切り捨てた「請求金額×</a:t>
-          </a:r>
+            <a:t>が追加されていること。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
@@ -3859,6 +4918,30 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
+            <a:t>3-3-11</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>．「請求総額」列に小数点以下を切り捨てた「請求金額×</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>(1+</a:t>
           </a:r>
           <a:r>
@@ -3895,7 +4978,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>」、とそれぞれレコードが追加されていること。</a:t>
+            <a:t>」が追加されていること。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -3907,21 +4990,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>620264</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>86527</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="図 15">
+        <xdr:cNvPr id="19" name="図 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7DED404-E1D1-444C-8651-EDF54BBB0738}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ADA13C7-26D2-4322-A007-ECAE6FFF1D83}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3943,7 +5026,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="9772650"/>
+          <a:off x="685800" y="10972800"/>
           <a:ext cx="8164064" cy="5744377"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3956,14 +5039,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3979,7 +5062,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="714375" y="12011025"/>
+          <a:off x="723900" y="13211175"/>
           <a:ext cx="8086725" cy="3429000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4023,16 +5106,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4047,8 +5130,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2895600" y="10925175"/>
-          <a:ext cx="5743575" cy="857250"/>
+          <a:off x="1857375" y="11515726"/>
+          <a:ext cx="6600825" cy="1581150"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -4099,8 +5182,44 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>「請求明細データ」テーブルに対して有効な料金情報を参照し、「請求年月」列に対象年月、「加入者</a:t>
-          </a:r>
+            <a:t>「請求明細データ」テーブルに対して有効な料金情報を参照し、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>それぞれのレコード</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>が追加されていること。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
@@ -4111,6 +5230,78 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
+            <a:t>3-4-1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>．</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「請求年月」列に対象年月が追加されていること。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3-4-2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>．「加入者</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>ID</a:t>
           </a:r>
           <a:r>
@@ -4147,8 +5338,20 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>、「料金</a:t>
-          </a:r>
+            <a:t>が追加されていること。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
@@ -4159,6 +5362,30 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
+            <a:t>3-4-3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>．「料金</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>ID</a:t>
           </a:r>
           <a:r>
@@ -4195,7 +5422,151 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>、「料金名」列に料金情報の料金名、「月額料金」列に料金情報の月額料金、「適用開始日」列に料金情報の適用開始日、「適用終了日」列に料金情報の適用終了日、とそれぞれレコードが追加されていること。</a:t>
+            <a:t>が追加されていること。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3-4-4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>．「料金名」列に料金情報の料金名が追加されていること。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3-4-5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>．「月額料金」列に料金情報の月額料金が追加されていること。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3-4-6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>．「適用開始日」列に料金情報の適用開始日が追加されていること。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3-4-7</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>．「適用終了日」列に料金情報の適用終了日が追加されていること。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -4831,13 +6202,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>400051</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4852,8 +6223,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1990725" y="9048750"/>
-          <a:ext cx="8010526" cy="1038225"/>
+          <a:off x="1990725" y="9048751"/>
+          <a:ext cx="6524625" cy="2286000"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -4904,8 +6275,44 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>「請求データ」テーブルに対して有効な加入者情報を参照し、「請求年月」列に対象年月、「加入者</a:t>
-          </a:r>
+            <a:t>「請求データ」テーブルに対して有効な加入者情報を参照し、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>それぞれのレコード</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>が追加されていること。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
@@ -4916,6 +6323,78 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
+            <a:t>4-3-1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>．</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「請求年月」列に対象年月が追加されていること。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4-3-2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>．「加入者</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>ID</a:t>
           </a:r>
           <a:r>
@@ -4952,8 +6431,20 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>、「メールアドレス」列に加入者情報のメールアドレス、「氏名」列に加入者情報の氏名、「住所」列に加入者情報の住所、「加入日」列に加入者情報の加入日、「解決日」列に加入者情報の解約日、「決済方法」列に加入者情報の決済情報、「請求金額」列に料金情報の有効な料金情報を参照した月額金額の合計、「消費税率」列に</a:t>
-          </a:r>
+            <a:t>が追加されていること。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
@@ -4964,6 +6455,282 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
+            <a:t>4-3-3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>．「メールアドレス」列に加入者情報のメールアドレスが追加されていること。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4-3-4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>．「氏名」列に加入者情報の氏名が追加されていること。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4-3-5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>．「住所」列に加入者情報の住所が追加されていること。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4-3-6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>．「加入日」列に加入者情報の加入日が追加されていること。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4-3-7</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>．「解決日」列に加入者情報の解約日が追加されていること。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4-3-8</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>．「決済方法」列に加入者情報の決済情報が追加されていること。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4-3-9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>．「請求金額」列に料金情報の有効な料金情報を参照した月額金額の合計が追加されていること。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4-3-10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>．「消費税率」列に</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>0.1</a:t>
           </a:r>
           <a:r>
@@ -4976,8 +6743,20 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>、「請求総額」列に小数点以下を切り捨てた「請求金額×</a:t>
-          </a:r>
+            <a:t>が追加されていること。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
@@ -4988,6 +6767,30 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
+            <a:t>4-3-11</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>．「請求総額」列に小数点以下を切り捨てた「請求金額×</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>(1+</a:t>
           </a:r>
           <a:r>
@@ -5024,7 +6827,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>」、とそれぞれレコードが追加されていること。</a:t>
+            <a:t>」が追加されていること。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -5036,21 +6839,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>553580</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>124799</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="図 15">
+        <xdr:cNvPr id="19" name="図 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{218C8D1F-7BDC-44CD-9BAC-AE7F5861A3E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16DD9927-9F8A-44E1-BF0F-65D6E9EAF050}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5072,7 +6875,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="10287000"/>
+          <a:off x="685800" y="11487150"/>
           <a:ext cx="8097380" cy="6982799"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5084,16 +6887,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5108,7 +6911,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="628650" y="15821025"/>
+          <a:off x="685800" y="16992600"/>
           <a:ext cx="8086725" cy="1314450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5152,16 +6955,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5176,8 +6979,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2781300" y="14782800"/>
-          <a:ext cx="5743575" cy="857250"/>
+          <a:off x="1571625" y="15182849"/>
+          <a:ext cx="6562725" cy="1619251"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -5228,8 +7031,44 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>「請求明細データ」テーブルに対して有効な料金情報を参照し、「請求年月」列に対象年月、「加入者</a:t>
-          </a:r>
+            <a:t>「請求明細データ」テーブルに対して有効な料金情報を参照し、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>それぞれのレコード</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>が追加されていること。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
@@ -5240,6 +7079,78 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
+            <a:t>4-4-1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>．</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「請求年月」列に対象年月が追加されていること。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4-4-2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>．「加入者</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>ID</a:t>
           </a:r>
           <a:r>
@@ -5276,8 +7187,20 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>、「料金</a:t>
-          </a:r>
+            <a:t>が追加されていること。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
@@ -5288,6 +7211,30 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
+            <a:t>4-4-3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>．「料金</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>ID</a:t>
           </a:r>
           <a:r>
@@ -5324,7 +7271,151 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>、「料金名」列に料金情報の料金名、「月額料金」列に料金情報の月額料金、「適用開始日」列に料金情報の適用開始日、「適用終了日」列に料金情報の適用終了日、とそれぞれレコードが追加されていること。</a:t>
+            <a:t>が追加されていること。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4-4-4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>．「料金名」列に料金情報の料金名が追加されていること。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4-4-5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>．「月額料金」列に料金情報の月額料金が追加されていること。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4-4-6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>．「適用開始日」列に料金情報の適用開始日が追加されていること。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4-4-7</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>．「適用終了日」列に料金情報の適用終了日が追加されていること。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -6766,7 +8857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BD78"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AM58" sqref="AM57:AM58"/>
     </sheetView>
   </sheetViews>
@@ -6825,13 +8916,13 @@
       </c>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
-      <c r="N33" s="4" t="s">
+      <c r="N33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="4"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="1"/>
       <c r="V33" s="3" t="s">
         <v>28</v>
       </c>
@@ -6849,13 +8940,13 @@
       </c>
       <c r="AE33" s="3"/>
       <c r="AF33" s="3"/>
-      <c r="AG33" s="4" t="s">
+      <c r="AG33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AH33" s="5"/>
-      <c r="AI33" s="5"/>
-      <c r="AJ33" s="5"/>
-      <c r="AK33" s="4"/>
+      <c r="AH33" s="2"/>
+      <c r="AI33" s="2"/>
+      <c r="AJ33" s="2"/>
+      <c r="AK33" s="1"/>
       <c r="AO33" s="3" t="s">
         <v>28</v>
       </c>
@@ -6873,13 +8964,13 @@
       </c>
       <c r="AX33" s="3"/>
       <c r="AY33" s="3"/>
-      <c r="AZ33" s="4" t="s">
+      <c r="AZ33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="BA33" s="5"/>
-      <c r="BB33" s="5"/>
-      <c r="BC33" s="5"/>
-      <c r="BD33" s="4"/>
+      <c r="BA33" s="2"/>
+      <c r="BB33" s="2"/>
+      <c r="BC33" s="2"/>
+      <c r="BD33" s="1"/>
     </row>
     <row r="34" spans="2:56" x14ac:dyDescent="0.15">
       <c r="C34" s="3" t="s">
@@ -6889,23 +8980,23 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
-      <c r="H34" s="1" t="s">
+      <c r="H34" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1" t="s">
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="2" t="s">
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
       <c r="V34" s="3">
         <v>1</v>
       </c>
@@ -6913,23 +9004,23 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
-      <c r="AA34" s="6" t="s">
+      <c r="AA34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AB34" s="6"/>
-      <c r="AC34" s="6"/>
-      <c r="AD34" s="6" t="s">
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="4"/>
+      <c r="AD34" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AE34" s="6"/>
-      <c r="AF34" s="6"/>
-      <c r="AG34" s="7" t="s">
+      <c r="AE34" s="4"/>
+      <c r="AF34" s="4"/>
+      <c r="AG34" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AH34" s="7"/>
-      <c r="AI34" s="7"/>
-      <c r="AJ34" s="7"/>
-      <c r="AK34" s="7"/>
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="5"/>
       <c r="AO34" s="3">
         <v>1</v>
       </c>
@@ -6937,23 +9028,23 @@
       <c r="AQ34" s="3"/>
       <c r="AR34" s="3"/>
       <c r="AS34" s="3"/>
-      <c r="AT34" s="8" t="s">
+      <c r="AT34" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="AU34" s="8"/>
-      <c r="AV34" s="8"/>
-      <c r="AW34" s="8" t="s">
+      <c r="AU34" s="7"/>
+      <c r="AV34" s="7"/>
+      <c r="AW34" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AX34" s="8"/>
-      <c r="AY34" s="8"/>
-      <c r="AZ34" s="9" t="s">
+      <c r="AX34" s="7"/>
+      <c r="AY34" s="7"/>
+      <c r="AZ34" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="BA34" s="9"/>
-      <c r="BB34" s="9"/>
-      <c r="BC34" s="9"/>
-      <c r="BD34" s="9"/>
+      <c r="BA34" s="6"/>
+      <c r="BB34" s="6"/>
+      <c r="BC34" s="6"/>
+      <c r="BD34" s="6"/>
     </row>
     <row r="35" spans="2:56" x14ac:dyDescent="0.15">
       <c r="C35" s="3" t="s">
@@ -6963,23 +9054,23 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
-      <c r="H35" s="6" t="s">
+      <c r="H35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6" t="s">
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="7" t="s">
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
       <c r="V35" s="3">
         <v>1652</v>
       </c>
@@ -6987,23 +9078,23 @@
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
-      <c r="AA35" s="6" t="s">
+      <c r="AA35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AB35" s="6"/>
-      <c r="AC35" s="6"/>
-      <c r="AD35" s="6" t="s">
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4"/>
+      <c r="AD35" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AE35" s="6"/>
-      <c r="AF35" s="6"/>
-      <c r="AG35" s="7" t="s">
+      <c r="AE35" s="4"/>
+      <c r="AF35" s="4"/>
+      <c r="AG35" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AH35" s="7"/>
-      <c r="AI35" s="7"/>
-      <c r="AJ35" s="7"/>
-      <c r="AK35" s="7"/>
+      <c r="AH35" s="5"/>
+      <c r="AI35" s="5"/>
+      <c r="AJ35" s="5"/>
+      <c r="AK35" s="5"/>
       <c r="AO35" s="3">
         <v>1652</v>
       </c>
@@ -7011,23 +9102,23 @@
       <c r="AQ35" s="3"/>
       <c r="AR35" s="3"/>
       <c r="AS35" s="3"/>
-      <c r="AT35" s="8" t="s">
+      <c r="AT35" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="AU35" s="8"/>
-      <c r="AV35" s="8"/>
-      <c r="AW35" s="8" t="s">
+      <c r="AU35" s="7"/>
+      <c r="AV35" s="7"/>
+      <c r="AW35" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AX35" s="8"/>
-      <c r="AY35" s="8"/>
-      <c r="AZ35" s="9" t="s">
+      <c r="AX35" s="7"/>
+      <c r="AY35" s="7"/>
+      <c r="AZ35" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="BA35" s="9"/>
-      <c r="BB35" s="9"/>
-      <c r="BC35" s="9"/>
-      <c r="BD35" s="9"/>
+      <c r="BA35" s="6"/>
+      <c r="BB35" s="6"/>
+      <c r="BC35" s="6"/>
+      <c r="BD35" s="6"/>
     </row>
     <row r="36" spans="2:56" x14ac:dyDescent="0.15">
       <c r="C36" s="3" t="s">
@@ -7037,23 +9128,23 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
-      <c r="H36" s="6" t="s">
+      <c r="H36" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6" t="s">
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="7" t="s">
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
       <c r="V36" s="3">
         <v>3252</v>
       </c>
@@ -7061,23 +9152,23 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
-      <c r="AA36" s="1" t="s">
+      <c r="AA36" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AB36" s="1"/>
-      <c r="AC36" s="1"/>
-      <c r="AD36" s="1" t="s">
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="8"/>
+      <c r="AD36" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="AE36" s="1"/>
-      <c r="AF36" s="1"/>
-      <c r="AG36" s="2" t="s">
+      <c r="AE36" s="8"/>
+      <c r="AF36" s="8"/>
+      <c r="AG36" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AH36" s="2"/>
-      <c r="AI36" s="2"/>
-      <c r="AJ36" s="2"/>
-      <c r="AK36" s="2"/>
+      <c r="AH36" s="9"/>
+      <c r="AI36" s="9"/>
+      <c r="AJ36" s="9"/>
+      <c r="AK36" s="9"/>
       <c r="AO36" s="3">
         <v>3252</v>
       </c>
@@ -7085,23 +9176,23 @@
       <c r="AQ36" s="3"/>
       <c r="AR36" s="3"/>
       <c r="AS36" s="3"/>
-      <c r="AT36" s="8" t="s">
+      <c r="AT36" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="AU36" s="8"/>
-      <c r="AV36" s="8"/>
-      <c r="AW36" s="8" t="s">
+      <c r="AU36" s="7"/>
+      <c r="AV36" s="7"/>
+      <c r="AW36" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="AX36" s="8"/>
-      <c r="AY36" s="8"/>
-      <c r="AZ36" s="9" t="s">
+      <c r="AX36" s="7"/>
+      <c r="AY36" s="7"/>
+      <c r="AZ36" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="BA36" s="9"/>
-      <c r="BB36" s="9"/>
-      <c r="BC36" s="9"/>
-      <c r="BD36" s="9"/>
+      <c r="BA36" s="6"/>
+      <c r="BB36" s="6"/>
+      <c r="BC36" s="6"/>
+      <c r="BD36" s="6"/>
     </row>
     <row r="37" spans="2:56" x14ac:dyDescent="0.15">
       <c r="C37" s="3" t="s">
@@ -7111,23 +9202,23 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
-      <c r="H37" s="6" t="s">
+      <c r="H37" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6" t="s">
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="7" t="s">
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="7"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
       <c r="V37" s="3">
         <v>3253</v>
       </c>
@@ -7135,23 +9226,23 @@
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
-      <c r="AA37" s="1" t="s">
+      <c r="AA37" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="AB37" s="1"/>
-      <c r="AC37" s="1"/>
-      <c r="AD37" s="1" t="s">
+      <c r="AB37" s="8"/>
+      <c r="AC37" s="8"/>
+      <c r="AD37" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="AE37" s="1"/>
-      <c r="AF37" s="1"/>
-      <c r="AG37" s="2" t="s">
+      <c r="AE37" s="8"/>
+      <c r="AF37" s="8"/>
+      <c r="AG37" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AH37" s="2"/>
-      <c r="AI37" s="2"/>
-      <c r="AJ37" s="2"/>
-      <c r="AK37" s="2"/>
+      <c r="AH37" s="9"/>
+      <c r="AI37" s="9"/>
+      <c r="AJ37" s="9"/>
+      <c r="AK37" s="9"/>
       <c r="AO37" s="3">
         <v>3253</v>
       </c>
@@ -7159,23 +9250,23 @@
       <c r="AQ37" s="3"/>
       <c r="AR37" s="3"/>
       <c r="AS37" s="3"/>
-      <c r="AT37" s="6" t="s">
+      <c r="AT37" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AU37" s="6"/>
-      <c r="AV37" s="6"/>
-      <c r="AW37" s="6" t="s">
+      <c r="AU37" s="4"/>
+      <c r="AV37" s="4"/>
+      <c r="AW37" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AX37" s="6"/>
-      <c r="AY37" s="6"/>
-      <c r="AZ37" s="7" t="s">
+      <c r="AX37" s="4"/>
+      <c r="AY37" s="4"/>
+      <c r="AZ37" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="BA37" s="7"/>
-      <c r="BB37" s="7"/>
-      <c r="BC37" s="7"/>
-      <c r="BD37" s="7"/>
+      <c r="BA37" s="5"/>
+      <c r="BB37" s="5"/>
+      <c r="BC37" s="5"/>
+      <c r="BD37" s="5"/>
     </row>
     <row r="38" spans="2:56" x14ac:dyDescent="0.15">
       <c r="C38" s="3" t="s">
@@ -7185,23 +9276,23 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
-      <c r="H38" s="1" t="s">
+      <c r="H38" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1" t="s">
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="2" t="s">
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
       <c r="V38" s="3">
         <v>3302</v>
       </c>
@@ -7209,23 +9300,23 @@
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
-      <c r="AA38" s="1" t="s">
+      <c r="AA38" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AB38" s="1"/>
-      <c r="AC38" s="1"/>
-      <c r="AD38" s="1" t="s">
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="8"/>
+      <c r="AD38" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="AE38" s="1"/>
-      <c r="AF38" s="1"/>
-      <c r="AG38" s="2" t="s">
+      <c r="AE38" s="8"/>
+      <c r="AF38" s="8"/>
+      <c r="AG38" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AH38" s="2"/>
-      <c r="AI38" s="2"/>
-      <c r="AJ38" s="2"/>
-      <c r="AK38" s="2"/>
+      <c r="AH38" s="9"/>
+      <c r="AI38" s="9"/>
+      <c r="AJ38" s="9"/>
+      <c r="AK38" s="9"/>
       <c r="AO38" s="3">
         <v>3302</v>
       </c>
@@ -7233,23 +9324,23 @@
       <c r="AQ38" s="3"/>
       <c r="AR38" s="3"/>
       <c r="AS38" s="3"/>
-      <c r="AT38" s="8" t="s">
+      <c r="AT38" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AU38" s="8"/>
-      <c r="AV38" s="8"/>
-      <c r="AW38" s="8" t="s">
+      <c r="AU38" s="7"/>
+      <c r="AV38" s="7"/>
+      <c r="AW38" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="AX38" s="8"/>
-      <c r="AY38" s="8"/>
-      <c r="AZ38" s="9" t="s">
+      <c r="AX38" s="7"/>
+      <c r="AY38" s="7"/>
+      <c r="AZ38" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="BA38" s="9"/>
-      <c r="BB38" s="9"/>
-      <c r="BC38" s="9"/>
-      <c r="BD38" s="9"/>
+      <c r="BA38" s="6"/>
+      <c r="BB38" s="6"/>
+      <c r="BC38" s="6"/>
+      <c r="BD38" s="6"/>
     </row>
     <row r="39" spans="2:56" x14ac:dyDescent="0.15">
       <c r="C39" s="3" t="s">
@@ -7259,23 +9350,23 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
-      <c r="H39" s="6" t="s">
+      <c r="H39" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6" t="s">
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="7" t="s">
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
       <c r="V39" s="3">
         <v>3352</v>
       </c>
@@ -7283,23 +9374,23 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-      <c r="AA39" s="6" t="s">
+      <c r="AA39" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AB39" s="6"/>
-      <c r="AC39" s="6"/>
-      <c r="AD39" s="6" t="s">
+      <c r="AB39" s="4"/>
+      <c r="AC39" s="4"/>
+      <c r="AD39" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AE39" s="6"/>
-      <c r="AF39" s="6"/>
-      <c r="AG39" s="7" t="s">
+      <c r="AE39" s="4"/>
+      <c r="AF39" s="4"/>
+      <c r="AG39" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AH39" s="7"/>
-      <c r="AI39" s="7"/>
-      <c r="AJ39" s="7"/>
-      <c r="AK39" s="7"/>
+      <c r="AH39" s="5"/>
+      <c r="AI39" s="5"/>
+      <c r="AJ39" s="5"/>
+      <c r="AK39" s="5"/>
       <c r="AO39" s="3">
         <v>3352</v>
       </c>
@@ -7307,23 +9398,23 @@
       <c r="AQ39" s="3"/>
       <c r="AR39" s="3"/>
       <c r="AS39" s="3"/>
-      <c r="AT39" s="6" t="s">
+      <c r="AT39" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AU39" s="6"/>
-      <c r="AV39" s="6"/>
-      <c r="AW39" s="6" t="s">
+      <c r="AU39" s="4"/>
+      <c r="AV39" s="4"/>
+      <c r="AW39" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AX39" s="6"/>
-      <c r="AY39" s="6"/>
-      <c r="AZ39" s="7" t="s">
+      <c r="AX39" s="4"/>
+      <c r="AY39" s="4"/>
+      <c r="AZ39" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="BA39" s="7"/>
-      <c r="BB39" s="7"/>
-      <c r="BC39" s="7"/>
-      <c r="BD39" s="7"/>
+      <c r="BA39" s="5"/>
+      <c r="BB39" s="5"/>
+      <c r="BC39" s="5"/>
+      <c r="BD39" s="5"/>
     </row>
     <row r="42" spans="2:56" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
@@ -7369,13 +9460,13 @@
       </c>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
-      <c r="N70" s="4" t="s">
+      <c r="N70" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O70" s="5"/>
-      <c r="P70" s="5"/>
-      <c r="Q70" s="5"/>
-      <c r="R70" s="4"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="1"/>
       <c r="V70" s="3" t="s">
         <v>41</v>
       </c>
@@ -7393,13 +9484,13 @@
       </c>
       <c r="AE70" s="3"/>
       <c r="AF70" s="3"/>
-      <c r="AG70" s="4" t="s">
+      <c r="AG70" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AH70" s="5"/>
-      <c r="AI70" s="5"/>
-      <c r="AJ70" s="5"/>
-      <c r="AK70" s="4"/>
+      <c r="AH70" s="2"/>
+      <c r="AI70" s="2"/>
+      <c r="AJ70" s="2"/>
+      <c r="AK70" s="1"/>
       <c r="AO70" s="3" t="s">
         <v>41</v>
       </c>
@@ -7417,13 +9508,13 @@
       </c>
       <c r="AX70" s="3"/>
       <c r="AY70" s="3"/>
-      <c r="AZ70" s="4" t="s">
+      <c r="AZ70" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="BA70" s="5"/>
-      <c r="BB70" s="5"/>
-      <c r="BC70" s="5"/>
-      <c r="BD70" s="4"/>
+      <c r="BA70" s="2"/>
+      <c r="BB70" s="2"/>
+      <c r="BC70" s="2"/>
+      <c r="BD70" s="1"/>
     </row>
     <row r="71" spans="2:56" x14ac:dyDescent="0.15">
       <c r="C71" s="3" t="s">
@@ -7433,23 +9524,23 @@
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
-      <c r="H71" s="1" t="s">
+      <c r="H71" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1" t="s">
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="2" t="s">
+      <c r="L71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="O71" s="2"/>
-      <c r="P71" s="2"/>
-      <c r="Q71" s="2"/>
-      <c r="R71" s="2"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="9"/>
+      <c r="R71" s="9"/>
       <c r="V71" s="3">
         <v>1</v>
       </c>
@@ -7457,23 +9548,23 @@
       <c r="X71" s="3"/>
       <c r="Y71" s="3"/>
       <c r="Z71" s="3"/>
-      <c r="AA71" s="6" t="s">
+      <c r="AA71" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AB71" s="6"/>
-      <c r="AC71" s="6"/>
-      <c r="AD71" s="6" t="s">
+      <c r="AB71" s="4"/>
+      <c r="AC71" s="4"/>
+      <c r="AD71" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AE71" s="6"/>
-      <c r="AF71" s="6"/>
-      <c r="AG71" s="7" t="s">
+      <c r="AE71" s="4"/>
+      <c r="AF71" s="4"/>
+      <c r="AG71" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AH71" s="7"/>
-      <c r="AI71" s="7"/>
-      <c r="AJ71" s="7"/>
-      <c r="AK71" s="7"/>
+      <c r="AH71" s="5"/>
+      <c r="AI71" s="5"/>
+      <c r="AJ71" s="5"/>
+      <c r="AK71" s="5"/>
       <c r="AO71" s="3">
         <v>1</v>
       </c>
@@ -7481,23 +9572,23 @@
       <c r="AQ71" s="3"/>
       <c r="AR71" s="3"/>
       <c r="AS71" s="3"/>
-      <c r="AT71" s="8" t="s">
+      <c r="AT71" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="AU71" s="8"/>
-      <c r="AV71" s="8"/>
-      <c r="AW71" s="8" t="s">
+      <c r="AU71" s="7"/>
+      <c r="AV71" s="7"/>
+      <c r="AW71" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AX71" s="8"/>
-      <c r="AY71" s="8"/>
-      <c r="AZ71" s="9" t="s">
+      <c r="AX71" s="7"/>
+      <c r="AY71" s="7"/>
+      <c r="AZ71" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="BA71" s="9"/>
-      <c r="BB71" s="9"/>
-      <c r="BC71" s="9"/>
-      <c r="BD71" s="9"/>
+      <c r="BA71" s="6"/>
+      <c r="BB71" s="6"/>
+      <c r="BC71" s="6"/>
+      <c r="BD71" s="6"/>
     </row>
     <row r="72" spans="2:56" x14ac:dyDescent="0.15">
       <c r="C72" s="3" t="s">
@@ -7507,23 +9598,23 @@
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
-      <c r="H72" s="6" t="s">
+      <c r="H72" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6" t="s">
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L72" s="6"/>
-      <c r="M72" s="6"/>
-      <c r="N72" s="7" t="s">
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="O72" s="7"/>
-      <c r="P72" s="7"/>
-      <c r="Q72" s="7"/>
-      <c r="R72" s="7"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="5"/>
+      <c r="Q72" s="5"/>
+      <c r="R72" s="5"/>
       <c r="V72" s="3">
         <v>4952</v>
       </c>
@@ -7531,23 +9622,23 @@
       <c r="X72" s="3"/>
       <c r="Y72" s="3"/>
       <c r="Z72" s="3"/>
-      <c r="AA72" s="6" t="s">
+      <c r="AA72" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AB72" s="6"/>
-      <c r="AC72" s="6"/>
-      <c r="AD72" s="6" t="s">
+      <c r="AB72" s="4"/>
+      <c r="AC72" s="4"/>
+      <c r="AD72" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AE72" s="6"/>
-      <c r="AF72" s="6"/>
-      <c r="AG72" s="7" t="s">
+      <c r="AE72" s="4"/>
+      <c r="AF72" s="4"/>
+      <c r="AG72" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AH72" s="7"/>
-      <c r="AI72" s="7"/>
-      <c r="AJ72" s="7"/>
-      <c r="AK72" s="7"/>
+      <c r="AH72" s="5"/>
+      <c r="AI72" s="5"/>
+      <c r="AJ72" s="5"/>
+      <c r="AK72" s="5"/>
       <c r="AO72" s="3">
         <v>4952</v>
       </c>
@@ -7555,23 +9646,23 @@
       <c r="AQ72" s="3"/>
       <c r="AR72" s="3"/>
       <c r="AS72" s="3"/>
-      <c r="AT72" s="8" t="s">
+      <c r="AT72" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="AU72" s="8"/>
-      <c r="AV72" s="8"/>
-      <c r="AW72" s="8" t="s">
+      <c r="AU72" s="7"/>
+      <c r="AV72" s="7"/>
+      <c r="AW72" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AX72" s="8"/>
-      <c r="AY72" s="8"/>
-      <c r="AZ72" s="9" t="s">
+      <c r="AX72" s="7"/>
+      <c r="AY72" s="7"/>
+      <c r="AZ72" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="BA72" s="9"/>
-      <c r="BB72" s="9"/>
-      <c r="BC72" s="9"/>
-      <c r="BD72" s="9"/>
+      <c r="BA72" s="6"/>
+      <c r="BB72" s="6"/>
+      <c r="BC72" s="6"/>
+      <c r="BD72" s="6"/>
     </row>
     <row r="73" spans="2:56" x14ac:dyDescent="0.15">
       <c r="C73" s="3" t="s">
@@ -7581,23 +9672,23 @@
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
-      <c r="H73" s="6" t="s">
+      <c r="H73" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6" t="s">
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L73" s="6"/>
-      <c r="M73" s="6"/>
-      <c r="N73" s="7" t="s">
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="O73" s="7"/>
-      <c r="P73" s="7"/>
-      <c r="Q73" s="7"/>
-      <c r="R73" s="7"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="5"/>
+      <c r="Q73" s="5"/>
+      <c r="R73" s="5"/>
       <c r="V73" s="3">
         <v>4953</v>
       </c>
@@ -7605,23 +9696,23 @@
       <c r="X73" s="3"/>
       <c r="Y73" s="3"/>
       <c r="Z73" s="3"/>
-      <c r="AA73" s="8" t="s">
+      <c r="AA73" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="AB73" s="8"/>
-      <c r="AC73" s="8"/>
-      <c r="AD73" s="8" t="s">
+      <c r="AB73" s="7"/>
+      <c r="AC73" s="7"/>
+      <c r="AD73" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AE73" s="8"/>
-      <c r="AF73" s="8"/>
-      <c r="AG73" s="9" t="s">
+      <c r="AE73" s="7"/>
+      <c r="AF73" s="7"/>
+      <c r="AG73" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AH73" s="9"/>
-      <c r="AI73" s="9"/>
-      <c r="AJ73" s="9"/>
-      <c r="AK73" s="9"/>
+      <c r="AH73" s="6"/>
+      <c r="AI73" s="6"/>
+      <c r="AJ73" s="6"/>
+      <c r="AK73" s="6"/>
       <c r="AO73" s="3">
         <v>4953</v>
       </c>
@@ -7629,23 +9720,23 @@
       <c r="AQ73" s="3"/>
       <c r="AR73" s="3"/>
       <c r="AS73" s="3"/>
-      <c r="AT73" s="8" t="s">
+      <c r="AT73" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="AU73" s="8"/>
-      <c r="AV73" s="8"/>
-      <c r="AW73" s="8" t="s">
+      <c r="AU73" s="7"/>
+      <c r="AV73" s="7"/>
+      <c r="AW73" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AX73" s="8"/>
-      <c r="AY73" s="8"/>
-      <c r="AZ73" s="9" t="s">
+      <c r="AX73" s="7"/>
+      <c r="AY73" s="7"/>
+      <c r="AZ73" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="BA73" s="9"/>
-      <c r="BB73" s="9"/>
-      <c r="BC73" s="9"/>
-      <c r="BD73" s="9"/>
+      <c r="BA73" s="6"/>
+      <c r="BB73" s="6"/>
+      <c r="BC73" s="6"/>
+      <c r="BD73" s="6"/>
     </row>
     <row r="74" spans="2:56" x14ac:dyDescent="0.15">
       <c r="C74" s="3" t="s">
@@ -7655,23 +9746,23 @@
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
-      <c r="H74" s="6" t="s">
+      <c r="H74" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6" t="s">
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L74" s="6"/>
-      <c r="M74" s="6"/>
-      <c r="N74" s="7" t="s">
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="O74" s="7"/>
-      <c r="P74" s="7"/>
-      <c r="Q74" s="7"/>
-      <c r="R74" s="7"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="5"/>
+      <c r="Q74" s="5"/>
+      <c r="R74" s="5"/>
       <c r="V74" s="3">
         <v>4954</v>
       </c>
@@ -7679,23 +9770,23 @@
       <c r="X74" s="3"/>
       <c r="Y74" s="3"/>
       <c r="Z74" s="3"/>
-      <c r="AA74" s="8" t="s">
+      <c r="AA74" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AB74" s="8"/>
-      <c r="AC74" s="8"/>
-      <c r="AD74" s="8" t="s">
+      <c r="AB74" s="7"/>
+      <c r="AC74" s="7"/>
+      <c r="AD74" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="AE74" s="8"/>
-      <c r="AF74" s="8"/>
-      <c r="AG74" s="9" t="s">
+      <c r="AE74" s="7"/>
+      <c r="AF74" s="7"/>
+      <c r="AG74" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AH74" s="9"/>
-      <c r="AI74" s="9"/>
-      <c r="AJ74" s="9"/>
-      <c r="AK74" s="9"/>
+      <c r="AH74" s="6"/>
+      <c r="AI74" s="6"/>
+      <c r="AJ74" s="6"/>
+      <c r="AK74" s="6"/>
       <c r="AO74" s="3">
         <v>4954</v>
       </c>
@@ -7703,23 +9794,23 @@
       <c r="AQ74" s="3"/>
       <c r="AR74" s="3"/>
       <c r="AS74" s="3"/>
-      <c r="AT74" s="6" t="s">
+      <c r="AT74" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AU74" s="6"/>
-      <c r="AV74" s="6"/>
-      <c r="AW74" s="6" t="s">
+      <c r="AU74" s="4"/>
+      <c r="AV74" s="4"/>
+      <c r="AW74" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AX74" s="6"/>
-      <c r="AY74" s="6"/>
-      <c r="AZ74" s="7" t="s">
+      <c r="AX74" s="4"/>
+      <c r="AY74" s="4"/>
+      <c r="AZ74" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="BA74" s="7"/>
-      <c r="BB74" s="7"/>
-      <c r="BC74" s="7"/>
-      <c r="BD74" s="7"/>
+      <c r="BA74" s="5"/>
+      <c r="BB74" s="5"/>
+      <c r="BC74" s="5"/>
+      <c r="BD74" s="5"/>
     </row>
     <row r="75" spans="2:56" x14ac:dyDescent="0.15">
       <c r="C75" s="3" t="s">
@@ -7729,23 +9820,23 @@
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
-      <c r="H75" s="1" t="s">
+      <c r="H75" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1" t="s">
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="2" t="s">
+      <c r="L75" s="8"/>
+      <c r="M75" s="8"/>
+      <c r="N75" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="O75" s="2"/>
-      <c r="P75" s="2"/>
-      <c r="Q75" s="2"/>
-      <c r="R75" s="2"/>
+      <c r="O75" s="9"/>
+      <c r="P75" s="9"/>
+      <c r="Q75" s="9"/>
+      <c r="R75" s="9"/>
       <c r="V75" s="3">
         <v>4955</v>
       </c>
@@ -7753,23 +9844,23 @@
       <c r="X75" s="3"/>
       <c r="Y75" s="3"/>
       <c r="Z75" s="3"/>
-      <c r="AA75" s="1" t="s">
+      <c r="AA75" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AB75" s="1"/>
-      <c r="AC75" s="1"/>
-      <c r="AD75" s="1" t="s">
+      <c r="AB75" s="8"/>
+      <c r="AC75" s="8"/>
+      <c r="AD75" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="AE75" s="1"/>
-      <c r="AF75" s="1"/>
-      <c r="AG75" s="2" t="s">
+      <c r="AE75" s="8"/>
+      <c r="AF75" s="8"/>
+      <c r="AG75" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AH75" s="2"/>
-      <c r="AI75" s="2"/>
-      <c r="AJ75" s="2"/>
-      <c r="AK75" s="2"/>
+      <c r="AH75" s="9"/>
+      <c r="AI75" s="9"/>
+      <c r="AJ75" s="9"/>
+      <c r="AK75" s="9"/>
       <c r="AO75" s="3">
         <v>4955</v>
       </c>
@@ -7777,23 +9868,23 @@
       <c r="AQ75" s="3"/>
       <c r="AR75" s="3"/>
       <c r="AS75" s="3"/>
-      <c r="AT75" s="6" t="s">
+      <c r="AT75" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AU75" s="6"/>
-      <c r="AV75" s="6"/>
-      <c r="AW75" s="6" t="s">
+      <c r="AU75" s="4"/>
+      <c r="AV75" s="4"/>
+      <c r="AW75" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AX75" s="6"/>
-      <c r="AY75" s="6"/>
-      <c r="AZ75" s="7" t="s">
+      <c r="AX75" s="4"/>
+      <c r="AY75" s="4"/>
+      <c r="AZ75" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="BA75" s="7"/>
-      <c r="BB75" s="7"/>
-      <c r="BC75" s="7"/>
-      <c r="BD75" s="7"/>
+      <c r="BA75" s="5"/>
+      <c r="BB75" s="5"/>
+      <c r="BC75" s="5"/>
+      <c r="BD75" s="5"/>
     </row>
     <row r="76" spans="2:56" x14ac:dyDescent="0.15">
       <c r="C76" s="3" t="s">
@@ -7803,23 +9894,23 @@
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
-      <c r="H76" s="6" t="s">
+      <c r="H76" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6" t="s">
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L76" s="6"/>
-      <c r="M76" s="6"/>
-      <c r="N76" s="7" t="s">
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="O76" s="7"/>
-      <c r="P76" s="7"/>
-      <c r="Q76" s="7"/>
-      <c r="R76" s="7"/>
+      <c r="O76" s="5"/>
+      <c r="P76" s="5"/>
+      <c r="Q76" s="5"/>
+      <c r="R76" s="5"/>
       <c r="V76" s="3">
         <v>4956</v>
       </c>
@@ -7827,23 +9918,23 @@
       <c r="X76" s="3"/>
       <c r="Y76" s="3"/>
       <c r="Z76" s="3"/>
-      <c r="AA76" s="6" t="s">
+      <c r="AA76" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AB76" s="6"/>
-      <c r="AC76" s="6"/>
-      <c r="AD76" s="6" t="s">
+      <c r="AB76" s="4"/>
+      <c r="AC76" s="4"/>
+      <c r="AD76" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AE76" s="6"/>
-      <c r="AF76" s="6"/>
-      <c r="AG76" s="7" t="s">
+      <c r="AE76" s="4"/>
+      <c r="AF76" s="4"/>
+      <c r="AG76" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AH76" s="7"/>
-      <c r="AI76" s="7"/>
-      <c r="AJ76" s="7"/>
-      <c r="AK76" s="7"/>
+      <c r="AH76" s="5"/>
+      <c r="AI76" s="5"/>
+      <c r="AJ76" s="5"/>
+      <c r="AK76" s="5"/>
       <c r="AO76" s="3">
         <v>4956</v>
       </c>
@@ -7851,23 +9942,23 @@
       <c r="AQ76" s="3"/>
       <c r="AR76" s="3"/>
       <c r="AS76" s="3"/>
-      <c r="AT76" s="6" t="s">
+      <c r="AT76" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AU76" s="6"/>
-      <c r="AV76" s="6"/>
-      <c r="AW76" s="6" t="s">
+      <c r="AU76" s="4"/>
+      <c r="AV76" s="4"/>
+      <c r="AW76" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AX76" s="6"/>
-      <c r="AY76" s="6"/>
-      <c r="AZ76" s="7" t="s">
+      <c r="AX76" s="4"/>
+      <c r="AY76" s="4"/>
+      <c r="AZ76" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="BA76" s="7"/>
-      <c r="BB76" s="7"/>
-      <c r="BC76" s="7"/>
-      <c r="BD76" s="7"/>
+      <c r="BA76" s="5"/>
+      <c r="BB76" s="5"/>
+      <c r="BC76" s="5"/>
+      <c r="BD76" s="5"/>
     </row>
     <row r="78" spans="2:56" x14ac:dyDescent="0.15">
       <c r="B78" t="s">
@@ -7876,27 +9967,123 @@
     </row>
   </sheetData>
   <mergeCells count="162">
-    <mergeCell ref="AO76:AS76"/>
-    <mergeCell ref="AT76:AV76"/>
-    <mergeCell ref="AW76:AY76"/>
-    <mergeCell ref="AZ76:BD76"/>
-    <mergeCell ref="AO74:AS74"/>
-    <mergeCell ref="AT74:AV74"/>
-    <mergeCell ref="AW74:AY74"/>
-    <mergeCell ref="AZ74:BD74"/>
-    <mergeCell ref="AO75:AS75"/>
-    <mergeCell ref="AT75:AV75"/>
-    <mergeCell ref="AW75:AY75"/>
-    <mergeCell ref="AZ75:BD75"/>
-    <mergeCell ref="AZ71:BD71"/>
-    <mergeCell ref="AO72:AS72"/>
-    <mergeCell ref="AT72:AV72"/>
-    <mergeCell ref="AW72:AY72"/>
-    <mergeCell ref="AZ72:BD72"/>
-    <mergeCell ref="AO73:AS73"/>
-    <mergeCell ref="AT73:AV73"/>
-    <mergeCell ref="AW73:AY73"/>
-    <mergeCell ref="AZ73:BD73"/>
+    <mergeCell ref="V39:Z39"/>
+    <mergeCell ref="AA34:AC34"/>
+    <mergeCell ref="AA35:AC35"/>
+    <mergeCell ref="AA36:AC36"/>
+    <mergeCell ref="AA37:AC37"/>
+    <mergeCell ref="AA38:AC38"/>
+    <mergeCell ref="AA39:AC39"/>
+    <mergeCell ref="V33:Z33"/>
+    <mergeCell ref="V34:Z34"/>
+    <mergeCell ref="V35:Z35"/>
+    <mergeCell ref="V36:Z36"/>
+    <mergeCell ref="V37:Z37"/>
+    <mergeCell ref="V38:Z38"/>
+    <mergeCell ref="AG34:AK34"/>
+    <mergeCell ref="AG35:AK35"/>
+    <mergeCell ref="AG36:AK36"/>
+    <mergeCell ref="AG37:AK37"/>
+    <mergeCell ref="AG38:AK38"/>
+    <mergeCell ref="AG39:AK39"/>
+    <mergeCell ref="AD38:AF38"/>
+    <mergeCell ref="AD39:AF39"/>
+    <mergeCell ref="AA33:AC33"/>
+    <mergeCell ref="AD33:AF33"/>
+    <mergeCell ref="AD34:AF34"/>
+    <mergeCell ref="AD35:AF35"/>
+    <mergeCell ref="AD36:AF36"/>
+    <mergeCell ref="AD37:AF37"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="N39:R39"/>
+    <mergeCell ref="AO33:AS33"/>
+    <mergeCell ref="AT33:AV33"/>
+    <mergeCell ref="AO36:AS36"/>
+    <mergeCell ref="AT36:AV36"/>
+    <mergeCell ref="AO38:AS38"/>
+    <mergeCell ref="AT38:AV38"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="AW33:AY33"/>
+    <mergeCell ref="AO34:AS34"/>
+    <mergeCell ref="AT34:AV34"/>
+    <mergeCell ref="AW34:AY34"/>
+    <mergeCell ref="AZ34:BD34"/>
+    <mergeCell ref="AO35:AS35"/>
+    <mergeCell ref="AT35:AV35"/>
+    <mergeCell ref="AW35:AY35"/>
+    <mergeCell ref="AZ35:BD35"/>
+    <mergeCell ref="AW38:AY38"/>
+    <mergeCell ref="AZ38:BD38"/>
+    <mergeCell ref="AO39:AS39"/>
+    <mergeCell ref="AT39:AV39"/>
+    <mergeCell ref="AW39:AY39"/>
+    <mergeCell ref="AZ39:BD39"/>
+    <mergeCell ref="AW36:AY36"/>
+    <mergeCell ref="AZ36:BD36"/>
+    <mergeCell ref="AO37:AS37"/>
+    <mergeCell ref="AT37:AV37"/>
+    <mergeCell ref="AW37:AY37"/>
+    <mergeCell ref="AZ37:BD37"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="N72:R72"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="N73:R73"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="K70:M70"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="K71:M71"/>
+    <mergeCell ref="AA72:AC72"/>
+    <mergeCell ref="AD72:AF72"/>
+    <mergeCell ref="AG72:AK72"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="K76:M76"/>
+    <mergeCell ref="N76:R76"/>
+    <mergeCell ref="V70:Z70"/>
+    <mergeCell ref="AA70:AC70"/>
+    <mergeCell ref="V73:Z73"/>
+    <mergeCell ref="AA73:AC73"/>
+    <mergeCell ref="V75:Z75"/>
+    <mergeCell ref="AA75:AC75"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="K74:M74"/>
+    <mergeCell ref="N74:R74"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="N75:R75"/>
+    <mergeCell ref="N71:R71"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:J72"/>
     <mergeCell ref="AO70:AS70"/>
     <mergeCell ref="AT70:AV70"/>
     <mergeCell ref="AW70:AY70"/>
@@ -7921,123 +10108,27 @@
     <mergeCell ref="AD71:AF71"/>
     <mergeCell ref="AG71:AK71"/>
     <mergeCell ref="V72:Z72"/>
-    <mergeCell ref="AA72:AC72"/>
-    <mergeCell ref="AD72:AF72"/>
-    <mergeCell ref="AG72:AK72"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="K76:M76"/>
-    <mergeCell ref="N76:R76"/>
-    <mergeCell ref="V70:Z70"/>
-    <mergeCell ref="AA70:AC70"/>
-    <mergeCell ref="V73:Z73"/>
-    <mergeCell ref="AA73:AC73"/>
-    <mergeCell ref="V75:Z75"/>
-    <mergeCell ref="AA75:AC75"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="K74:M74"/>
-    <mergeCell ref="N74:R74"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="N75:R75"/>
-    <mergeCell ref="N71:R71"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="N72:R72"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="N73:R73"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="K70:M70"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="K71:M71"/>
-    <mergeCell ref="AW38:AY38"/>
-    <mergeCell ref="AZ38:BD38"/>
-    <mergeCell ref="AO39:AS39"/>
-    <mergeCell ref="AT39:AV39"/>
-    <mergeCell ref="AW39:AY39"/>
-    <mergeCell ref="AZ39:BD39"/>
-    <mergeCell ref="AW36:AY36"/>
-    <mergeCell ref="AZ36:BD36"/>
-    <mergeCell ref="AO37:AS37"/>
-    <mergeCell ref="AT37:AV37"/>
-    <mergeCell ref="AW37:AY37"/>
-    <mergeCell ref="AZ37:BD37"/>
-    <mergeCell ref="AW33:AY33"/>
-    <mergeCell ref="AO34:AS34"/>
-    <mergeCell ref="AT34:AV34"/>
-    <mergeCell ref="AW34:AY34"/>
-    <mergeCell ref="AZ34:BD34"/>
-    <mergeCell ref="AO35:AS35"/>
-    <mergeCell ref="AT35:AV35"/>
-    <mergeCell ref="AW35:AY35"/>
-    <mergeCell ref="AZ35:BD35"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="N39:R39"/>
-    <mergeCell ref="AO33:AS33"/>
-    <mergeCell ref="AT33:AV33"/>
-    <mergeCell ref="AO36:AS36"/>
-    <mergeCell ref="AT36:AV36"/>
-    <mergeCell ref="AO38:AS38"/>
-    <mergeCell ref="AT38:AV38"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="AG34:AK34"/>
-    <mergeCell ref="AG35:AK35"/>
-    <mergeCell ref="AG36:AK36"/>
-    <mergeCell ref="AG37:AK37"/>
-    <mergeCell ref="AG38:AK38"/>
-    <mergeCell ref="AG39:AK39"/>
-    <mergeCell ref="AD38:AF38"/>
-    <mergeCell ref="AD39:AF39"/>
-    <mergeCell ref="AA33:AC33"/>
-    <mergeCell ref="AD33:AF33"/>
-    <mergeCell ref="AD34:AF34"/>
-    <mergeCell ref="AD35:AF35"/>
-    <mergeCell ref="AD36:AF36"/>
-    <mergeCell ref="AD37:AF37"/>
-    <mergeCell ref="V39:Z39"/>
-    <mergeCell ref="AA34:AC34"/>
-    <mergeCell ref="AA35:AC35"/>
-    <mergeCell ref="AA36:AC36"/>
-    <mergeCell ref="AA37:AC37"/>
-    <mergeCell ref="AA38:AC38"/>
-    <mergeCell ref="AA39:AC39"/>
-    <mergeCell ref="V33:Z33"/>
-    <mergeCell ref="V34:Z34"/>
-    <mergeCell ref="V35:Z35"/>
-    <mergeCell ref="V36:Z36"/>
-    <mergeCell ref="V37:Z37"/>
-    <mergeCell ref="V38:Z38"/>
+    <mergeCell ref="AZ71:BD71"/>
+    <mergeCell ref="AO72:AS72"/>
+    <mergeCell ref="AT72:AV72"/>
+    <mergeCell ref="AW72:AY72"/>
+    <mergeCell ref="AZ72:BD72"/>
+    <mergeCell ref="AO73:AS73"/>
+    <mergeCell ref="AT73:AV73"/>
+    <mergeCell ref="AW73:AY73"/>
+    <mergeCell ref="AZ73:BD73"/>
+    <mergeCell ref="AO76:AS76"/>
+    <mergeCell ref="AT76:AV76"/>
+    <mergeCell ref="AW76:AY76"/>
+    <mergeCell ref="AZ76:BD76"/>
+    <mergeCell ref="AO74:AS74"/>
+    <mergeCell ref="AT74:AV74"/>
+    <mergeCell ref="AW74:AY74"/>
+    <mergeCell ref="AZ74:BD74"/>
+    <mergeCell ref="AO75:AS75"/>
+    <mergeCell ref="AT75:AV75"/>
+    <mergeCell ref="AW75:AY75"/>
+    <mergeCell ref="AZ75:BD75"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8050,8 +10141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF42CC2-EC72-43B9-9316-D8BB38FE5289}">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8073,7 +10164,7 @@
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8095,7 +10186,7 @@
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="P78" sqref="P78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8117,7 +10208,7 @@
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J99" sqref="J99"/>
+      <selection activeCell="O73" sqref="O73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8139,7 +10230,7 @@
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+      <selection activeCell="Q90" sqref="Q90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8161,7 +10252,7 @@
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8174,7 +10265,8 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8183,7 +10275,7 @@
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D44" sqref="D43:D44"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8205,7 +10297,7 @@
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8227,7 +10319,7 @@
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I40" sqref="I39:I40"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8245,20 +10337,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="9b108c9d-5c08-4ee2-bdd9-03d7a1f1ab24" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="9b108c9d-5c08-4ee2-bdd9-03d7a1f1ab24" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8483,26 +10575,26 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8048152-0CA9-47E5-A6CC-6D3980A2E781}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="56e10275-989c-4f73-8c17-49061c649ff8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9b108c9d-5c08-4ee2-bdd9-03d7a1f1ab24"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8048152-0CA9-47E5-A6CC-6D3980A2E781}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="56e10275-989c-4f73-8c17-49061c649ff8"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="9b108c9d-5c08-4ee2-bdd9-03d7a1f1ab24"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
